--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Agrp-Sdc3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Agrp-Sdc3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Agrp</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -546,10 +546,10 @@
         <v>2.348761</v>
       </c>
       <c r="I2">
-        <v>0.8743994174544757</v>
+        <v>0.342817505175991</v>
       </c>
       <c r="J2">
-        <v>0.8743994174544756</v>
+        <v>0.342817505175991</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.41778966666667</v>
+        <v>34.19408466666667</v>
       </c>
       <c r="N2">
-        <v>100.253369</v>
+        <v>102.582254</v>
       </c>
       <c r="O2">
-        <v>0.1572791178915016</v>
+        <v>0.1386014679294276</v>
       </c>
       <c r="P2">
-        <v>0.1572791178915016</v>
+        <v>0.1386014679294276</v>
       </c>
       <c r="Q2">
-        <v>26.16346702508989</v>
+        <v>26.77124416525489</v>
       </c>
       <c r="R2">
-        <v>235.471203225809</v>
+        <v>240.941197487294</v>
       </c>
       <c r="S2">
-        <v>0.1375247690620829</v>
+        <v>0.04751500944929649</v>
       </c>
       <c r="T2">
-        <v>0.1375247690620828</v>
+        <v>0.04751500944929648</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>2.348761</v>
       </c>
       <c r="I3">
-        <v>0.8743994174544757</v>
+        <v>0.342817505175991</v>
       </c>
       <c r="J3">
-        <v>0.8743994174544756</v>
+        <v>0.342817505175991</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,16 +620,16 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>36.38575599999999</v>
+        <v>36.385756</v>
       </c>
       <c r="N3">
         <v>109.157268</v>
       </c>
       <c r="O3">
-        <v>0.1712476996407596</v>
+        <v>0.1474851350016732</v>
       </c>
       <c r="P3">
-        <v>0.1712476996407596</v>
+        <v>0.1474851350016732</v>
       </c>
       <c r="Q3">
         <v>28.48714821610533</v>
@@ -638,10 +638,10 @@
         <v>256.384333944948</v>
       </c>
       <c r="S3">
-        <v>0.1497388888062992</v>
+        <v>0.05056048603181784</v>
       </c>
       <c r="T3">
-        <v>0.1497388888062992</v>
+        <v>0.05056048603181782</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -670,10 +670,10 @@
         <v>2.348761</v>
       </c>
       <c r="I4">
-        <v>0.8743994174544757</v>
+        <v>0.342817505175991</v>
       </c>
       <c r="J4">
-        <v>0.8743994174544756</v>
+        <v>0.342817505175991</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>69.26638266666667</v>
+        <v>95.47759733333334</v>
       </c>
       <c r="N4">
-        <v>207.799148</v>
+        <v>286.432792</v>
       </c>
       <c r="O4">
-        <v>0.3259986873463135</v>
+        <v>0.3870065619178576</v>
       </c>
       <c r="P4">
-        <v>0.3259986873463135</v>
+        <v>0.3870065619178576</v>
       </c>
       <c r="Q4">
-        <v>54.23005940618089</v>
+        <v>74.75135233007911</v>
       </c>
       <c r="R4">
-        <v>488.070534655628</v>
+        <v>672.7621709707121</v>
       </c>
       <c r="S4">
-        <v>0.2850530623065403</v>
+        <v>0.1326726240434176</v>
       </c>
       <c r="T4">
-        <v>0.2850530623065402</v>
+        <v>0.1326726240434176</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -732,10 +732,10 @@
         <v>2.348761</v>
       </c>
       <c r="I5">
-        <v>0.8743994174544757</v>
+        <v>0.342817505175991</v>
       </c>
       <c r="J5">
-        <v>0.8743994174544756</v>
+        <v>0.342817505175991</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.434611</v>
+        <v>3.450771666666667</v>
       </c>
       <c r="N5">
-        <v>10.303833</v>
+        <v>10.352315</v>
       </c>
       <c r="O5">
-        <v>0.01616482100607856</v>
+        <v>0.01398727362208118</v>
       </c>
       <c r="P5">
-        <v>0.01616482100607856</v>
+        <v>0.01398727362208118</v>
       </c>
       <c r="Q5">
-        <v>2.689026788990334</v>
+        <v>2.701679303523889</v>
       </c>
       <c r="R5">
-        <v>24.201241100913</v>
+        <v>24.315113731715</v>
       </c>
       <c r="S5">
-        <v>0.01413451007097096</v>
+        <v>0.004795082247335818</v>
       </c>
       <c r="T5">
-        <v>0.01413451007097096</v>
+        <v>0.004795082247335818</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -794,10 +794,10 @@
         <v>2.348761</v>
       </c>
       <c r="I6">
-        <v>0.8743994174544757</v>
+        <v>0.342817505175991</v>
       </c>
       <c r="J6">
-        <v>0.8743994174544756</v>
+        <v>0.342817505175991</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>69.96988266666666</v>
+        <v>77.19974499999999</v>
       </c>
       <c r="N6">
-        <v>209.909648</v>
+        <v>231.599235</v>
       </c>
       <c r="O6">
-        <v>0.3293096741153467</v>
+        <v>0.3129195615289605</v>
       </c>
       <c r="P6">
-        <v>0.3293096741153468</v>
+        <v>0.3129195615289605</v>
       </c>
       <c r="Q6">
-        <v>54.78084386068089</v>
+        <v>60.44125008864832</v>
       </c>
       <c r="R6">
-        <v>493.027594746128</v>
+        <v>543.971250797835</v>
       </c>
       <c r="S6">
-        <v>0.2879481872085824</v>
+        <v>0.1072743034041233</v>
       </c>
       <c r="T6">
-        <v>0.2879481872085825</v>
+        <v>0.1072743034041232</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.1124603333333333</v>
+        <v>0.8792006666666667</v>
       </c>
       <c r="H7">
-        <v>0.337381</v>
+        <v>2.637602</v>
       </c>
       <c r="I7">
-        <v>0.1256005825455244</v>
+        <v>0.3849757967231252</v>
       </c>
       <c r="J7">
-        <v>0.1256005825455244</v>
+        <v>0.3849757967231252</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.41778966666667</v>
+        <v>34.19408466666667</v>
       </c>
       <c r="N7">
-        <v>100.253369</v>
+        <v>102.582254</v>
       </c>
       <c r="O7">
-        <v>0.1572791178915016</v>
+        <v>0.1386014679294276</v>
       </c>
       <c r="P7">
-        <v>0.1572791178915016</v>
+        <v>0.1386014679294276</v>
       </c>
       <c r="Q7">
-        <v>3.758175765176556</v>
+        <v>30.06346203498978</v>
       </c>
       <c r="R7">
-        <v>33.823581886589</v>
+        <v>270.571158314908</v>
       </c>
       <c r="S7">
-        <v>0.01975434882941882</v>
+        <v>0.05335821054312607</v>
       </c>
       <c r="T7">
-        <v>0.01975434882941882</v>
+        <v>0.05335821054312607</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.1124603333333333</v>
+        <v>0.8792006666666667</v>
       </c>
       <c r="H8">
-        <v>0.337381</v>
+        <v>2.637602</v>
       </c>
       <c r="I8">
-        <v>0.1256005825455244</v>
+        <v>0.3849757967231252</v>
       </c>
       <c r="J8">
-        <v>0.1256005825455244</v>
+        <v>0.3849757967231252</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>36.38575599999999</v>
+        <v>36.385756</v>
       </c>
       <c r="N8">
         <v>109.157268</v>
       </c>
       <c r="O8">
-        <v>0.1712476996407596</v>
+        <v>0.1474851350016732</v>
       </c>
       <c r="P8">
-        <v>0.1712476996407596</v>
+        <v>0.1474851350016732</v>
       </c>
       <c r="Q8">
-        <v>4.091954248345332</v>
+        <v>31.99038093237067</v>
       </c>
       <c r="R8">
-        <v>36.827588235108</v>
+        <v>287.913428391336</v>
       </c>
       <c r="S8">
-        <v>0.02150881083446039</v>
+        <v>0.05677820735208682</v>
       </c>
       <c r="T8">
-        <v>0.02150881083446039</v>
+        <v>0.05677820735208682</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.1124603333333333</v>
+        <v>0.8792006666666667</v>
       </c>
       <c r="H9">
-        <v>0.337381</v>
+        <v>2.637602</v>
       </c>
       <c r="I9">
-        <v>0.1256005825455244</v>
+        <v>0.3849757967231252</v>
       </c>
       <c r="J9">
-        <v>0.1256005825455244</v>
+        <v>0.3849757967231252</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>69.26638266666667</v>
+        <v>95.47759733333334</v>
       </c>
       <c r="N9">
-        <v>207.799148</v>
+        <v>286.432792</v>
       </c>
       <c r="O9">
-        <v>0.3259986873463135</v>
+        <v>0.3870065619178576</v>
       </c>
       <c r="P9">
-        <v>0.3259986873463135</v>
+        <v>0.3870065619178576</v>
       </c>
       <c r="Q9">
-        <v>7.789720483487556</v>
+        <v>83.94396722719823</v>
       </c>
       <c r="R9">
-        <v>70.107484351388</v>
+        <v>755.4957050447841</v>
       </c>
       <c r="S9">
-        <v>0.04094562503977325</v>
+        <v>0.1489881595114047</v>
       </c>
       <c r="T9">
-        <v>0.04094562503977325</v>
+        <v>0.1489881595114047</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.1124603333333333</v>
+        <v>0.8792006666666667</v>
       </c>
       <c r="H10">
-        <v>0.337381</v>
+        <v>2.637602</v>
       </c>
       <c r="I10">
-        <v>0.1256005825455244</v>
+        <v>0.3849757967231252</v>
       </c>
       <c r="J10">
-        <v>0.1256005825455244</v>
+        <v>0.3849757967231252</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.434611</v>
+        <v>3.450771666666667</v>
       </c>
       <c r="N10">
-        <v>10.303833</v>
+        <v>10.352315</v>
       </c>
       <c r="O10">
-        <v>0.01616482100607856</v>
+        <v>0.01398727362208118</v>
       </c>
       <c r="P10">
-        <v>0.01616482100607856</v>
+        <v>0.01398727362208118</v>
       </c>
       <c r="Q10">
-        <v>0.3862574979303334</v>
+        <v>3.033920749847778</v>
       </c>
       <c r="R10">
-        <v>3.476317481373</v>
+        <v>27.30528674863</v>
       </c>
       <c r="S10">
-        <v>0.002030310935107596</v>
+        <v>0.005384761806645057</v>
       </c>
       <c r="T10">
-        <v>0.002030310935107596</v>
+        <v>0.005384761806645057</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,681 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.8792006666666667</v>
+      </c>
+      <c r="H11">
+        <v>2.637602</v>
+      </c>
+      <c r="I11">
+        <v>0.3849757967231252</v>
+      </c>
+      <c r="J11">
+        <v>0.3849757967231252</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>77.19974499999999</v>
+      </c>
+      <c r="N11">
+        <v>231.599235</v>
+      </c>
+      <c r="O11">
+        <v>0.3129195615289605</v>
+      </c>
+      <c r="P11">
+        <v>0.3129195615289605</v>
+      </c>
+      <c r="Q11">
+        <v>67.87406727049667</v>
+      </c>
+      <c r="R11">
+        <v>610.86660543447</v>
+      </c>
+      <c r="S11">
+        <v>0.1204664575098626</v>
+      </c>
+      <c r="T11">
+        <v>0.1204664575098626</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.05636633333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.169099</v>
+      </c>
+      <c r="I12">
+        <v>0.02468113925076025</v>
+      </c>
+      <c r="J12">
+        <v>0.02468113925076025</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>34.19408466666667</v>
+      </c>
+      <c r="N12">
+        <v>102.582254</v>
+      </c>
+      <c r="O12">
+        <v>0.1386014679294276</v>
+      </c>
+      <c r="P12">
+        <v>0.1386014679294276</v>
+      </c>
+      <c r="Q12">
+        <v>1.927395174349556</v>
+      </c>
+      <c r="R12">
+        <v>17.346556569146</v>
+      </c>
+      <c r="S12">
+        <v>0.003420842130325983</v>
+      </c>
+      <c r="T12">
+        <v>0.003420842130325983</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.05636633333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.169099</v>
+      </c>
+      <c r="I13">
+        <v>0.02468113925076025</v>
+      </c>
+      <c r="J13">
+        <v>0.02468113925076025</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>36.385756</v>
+      </c>
+      <c r="N13">
+        <v>109.157268</v>
+      </c>
+      <c r="O13">
+        <v>0.1474851350016732</v>
+      </c>
+      <c r="P13">
+        <v>0.1474851350016732</v>
+      </c>
+      <c r="Q13">
+        <v>2.050931651281333</v>
+      </c>
+      <c r="R13">
+        <v>18.458384861532</v>
+      </c>
+      <c r="S13">
+        <v>0.003640101154393471</v>
+      </c>
+      <c r="T13">
+        <v>0.00364010115439347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.05636633333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.169099</v>
+      </c>
+      <c r="I14">
+        <v>0.02468113925076025</v>
+      </c>
+      <c r="J14">
+        <v>0.02468113925076025</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>95.47759733333334</v>
+      </c>
+      <c r="N14">
+        <v>286.432792</v>
+      </c>
+      <c r="O14">
+        <v>0.3870065619178576</v>
+      </c>
+      <c r="P14">
+        <v>0.3870065619178576</v>
+      </c>
+      <c r="Q14">
+        <v>5.381722077156445</v>
+      </c>
+      <c r="R14">
+        <v>48.435498694408</v>
+      </c>
+      <c r="S14">
+        <v>0.009551762845652614</v>
+      </c>
+      <c r="T14">
+        <v>0.009551762845652612</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.05636633333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.169099</v>
+      </c>
+      <c r="I15">
+        <v>0.02468113925076025</v>
+      </c>
+      <c r="J15">
+        <v>0.02468113925076025</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.450771666666667</v>
+      </c>
+      <c r="N15">
+        <v>10.352315</v>
+      </c>
+      <c r="O15">
+        <v>0.01398727362208118</v>
+      </c>
+      <c r="P15">
+        <v>0.01398727362208118</v>
+      </c>
+      <c r="Q15">
+        <v>0.1945073460205556</v>
+      </c>
+      <c r="R15">
+        <v>1.750566114185</v>
+      </c>
+      <c r="S15">
+        <v>0.0003452218480050714</v>
+      </c>
+      <c r="T15">
+        <v>0.0003452218480050714</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.05636633333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.169099</v>
+      </c>
+      <c r="I16">
+        <v>0.02468113925076025</v>
+      </c>
+      <c r="J16">
+        <v>0.02468113925076025</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>77.19974499999999</v>
+      </c>
+      <c r="N16">
+        <v>231.599235</v>
+      </c>
+      <c r="O16">
+        <v>0.3129195615289605</v>
+      </c>
+      <c r="P16">
+        <v>0.3129195615289605</v>
+      </c>
+      <c r="Q16">
+        <v>4.351466559918332</v>
+      </c>
+      <c r="R16">
+        <v>39.163199039265</v>
+      </c>
+      <c r="S16">
+        <v>0.007723211272383114</v>
+      </c>
+      <c r="T16">
+        <v>0.007723211272383114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
         <v>26</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.1124603333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.337381</v>
-      </c>
-      <c r="I11">
-        <v>0.1256005825455244</v>
-      </c>
-      <c r="J11">
-        <v>0.1256005825455244</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>69.96988266666666</v>
-      </c>
-      <c r="N11">
-        <v>209.909648</v>
-      </c>
-      <c r="O11">
-        <v>0.3293096741153467</v>
-      </c>
-      <c r="P11">
-        <v>0.3293096741153468</v>
-      </c>
-      <c r="Q11">
-        <v>7.868836327987555</v>
-      </c>
-      <c r="R11">
-        <v>70.81952695188799</v>
-      </c>
-      <c r="S11">
-        <v>0.04136148690676435</v>
-      </c>
-      <c r="T11">
-        <v>0.04136148690676435</v>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.5652943333333332</v>
+      </c>
+      <c r="H17">
+        <v>1.695883</v>
+      </c>
+      <c r="I17">
+        <v>0.2475255588501236</v>
+      </c>
+      <c r="J17">
+        <v>0.2475255588501236</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>34.19408466666667</v>
+      </c>
+      <c r="N17">
+        <v>102.582254</v>
+      </c>
+      <c r="O17">
+        <v>0.1386014679294276</v>
+      </c>
+      <c r="P17">
+        <v>0.1386014679294276</v>
+      </c>
+      <c r="Q17">
+        <v>19.32972229558689</v>
+      </c>
+      <c r="R17">
+        <v>173.967500660282</v>
+      </c>
+      <c r="S17">
+        <v>0.03430740580667904</v>
+      </c>
+      <c r="T17">
+        <v>0.03430740580667904</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.5652943333333332</v>
+      </c>
+      <c r="H18">
+        <v>1.695883</v>
+      </c>
+      <c r="I18">
+        <v>0.2475255588501236</v>
+      </c>
+      <c r="J18">
+        <v>0.2475255588501236</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>36.385756</v>
+      </c>
+      <c r="N18">
+        <v>109.157268</v>
+      </c>
+      <c r="O18">
+        <v>0.1474851350016732</v>
+      </c>
+      <c r="P18">
+        <v>0.1474851350016732</v>
+      </c>
+      <c r="Q18">
+        <v>20.56866168084933</v>
+      </c>
+      <c r="R18">
+        <v>185.117955127644</v>
+      </c>
+      <c r="S18">
+        <v>0.03650634046337508</v>
+      </c>
+      <c r="T18">
+        <v>0.03650634046337507</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.5652943333333332</v>
+      </c>
+      <c r="H19">
+        <v>1.695883</v>
+      </c>
+      <c r="I19">
+        <v>0.2475255588501236</v>
+      </c>
+      <c r="J19">
+        <v>0.2475255588501236</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>95.47759733333334</v>
+      </c>
+      <c r="N19">
+        <v>286.432792</v>
+      </c>
+      <c r="O19">
+        <v>0.3870065619178576</v>
+      </c>
+      <c r="P19">
+        <v>0.3870065619178576</v>
+      </c>
+      <c r="Q19">
+        <v>53.9729447328151</v>
+      </c>
+      <c r="R19">
+        <v>485.756502595336</v>
+      </c>
+      <c r="S19">
+        <v>0.09579401551738266</v>
+      </c>
+      <c r="T19">
+        <v>0.09579401551738265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.5652943333333332</v>
+      </c>
+      <c r="H20">
+        <v>1.695883</v>
+      </c>
+      <c r="I20">
+        <v>0.2475255588501236</v>
+      </c>
+      <c r="J20">
+        <v>0.2475255588501236</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3.450771666666667</v>
+      </c>
+      <c r="N20">
+        <v>10.352315</v>
+      </c>
+      <c r="O20">
+        <v>0.01398727362208118</v>
+      </c>
+      <c r="P20">
+        <v>0.01398727362208118</v>
+      </c>
+      <c r="Q20">
+        <v>1.950701668793889</v>
+      </c>
+      <c r="R20">
+        <v>17.556315019145</v>
+      </c>
+      <c r="S20">
+        <v>0.003462207720095237</v>
+      </c>
+      <c r="T20">
+        <v>0.003462207720095237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.5652943333333332</v>
+      </c>
+      <c r="H21">
+        <v>1.695883</v>
+      </c>
+      <c r="I21">
+        <v>0.2475255588501236</v>
+      </c>
+      <c r="J21">
+        <v>0.2475255588501236</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>77.19974499999999</v>
+      </c>
+      <c r="N21">
+        <v>231.599235</v>
+      </c>
+      <c r="O21">
+        <v>0.3129195615289605</v>
+      </c>
+      <c r="P21">
+        <v>0.3129195615289605</v>
+      </c>
+      <c r="Q21">
+        <v>43.64057838327832</v>
+      </c>
+      <c r="R21">
+        <v>392.7652054495049</v>
+      </c>
+      <c r="S21">
+        <v>0.07745558934259157</v>
+      </c>
+      <c r="T21">
+        <v>0.07745558934259157</v>
       </c>
     </row>
   </sheetData>
